--- a/Assets/06.Table/RoyalTombTowerTable.xlsx
+++ b/Assets/06.Table/RoyalTombTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAB572-6D26-4E43-A4DD-C7319FE110F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B3298-EF47-445C-9018-9204215738C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RoyalTombTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1085,7 @@
         <v>9015</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D32" si="0">D3+1</f>
+        <f t="shared" ref="D8:D52" si="0">D3+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>3.4695625000000004E+99</v>
+        <v>3.4695624999999999E+99</v>
       </c>
       <c r="G31">
         <v>1000</v>
@@ -1899,9 +1899,689 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>9015</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <f>F32*1.45</f>
+        <v>1.2577164134999999E+100</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>9015</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:F52" si="1">F33*1.45</f>
+        <v>1.8236887995749999E+100</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>9015</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6443487593837498E+100</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>9015</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8343057011064371E+100</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>9015</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5597432666043335E+100</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>9015</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0616277365762835E+100</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>9015</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1689360218035611E+101</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>9015</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6949572316151636E+101</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>9015</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4576879858419873E+101</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>9015</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5636475794708816E+101</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>9015</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1672889902327782E+101</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>9015</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4925690358375277E+101</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>9015</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0864225101964415E+102</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>9015</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5753126397848402E+102</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>9015</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2842033276880184E+102</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>9015</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3120948251476267E+102</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>9015</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8025374964640586E+102</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>9015</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9636793698728845E+102</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>9015</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0097335086315682E+103</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>9015</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4641135875157737E+103</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32">
+  <conditionalFormatting sqref="A2:J32 A33:E52 G33:J52">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -1915,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/RoyalTombTowerTable.xlsx
+++ b/Assets/06.Table/RoyalTombTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B3298-EF47-445C-9018-9204215738C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC49DCC-2D5B-4904-BB26-FA2F17C6348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RoyalTombTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1085,7 @@
         <v>9015</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D52" si="0">D3+1</f>
+        <f t="shared" ref="D8:D71" si="0">D3+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F52" si="1">F33*1.45</f>
+        <f t="shared" ref="F34:F71" si="1">F33*1.45</f>
         <v>1.8236887995749999E+100</v>
       </c>
       <c r="G34">
@@ -2579,9 +2579,655 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>9015</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1229647018978717E+103</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>9015</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0782988177519141E+103</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>9015</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4635332857402755E+103</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>9015</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4721232643233994E+103</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9015</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>9.384578733268929E+103</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>9015</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3607639163239947E+104</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>9015</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9731076786697923E+104</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>9015</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8610061340711987E+104</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>9015</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1484588944032377E+104</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>9015</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0152653968846941E+104</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>9015</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>8.7221348254828058E+104</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>9015</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2647095496950069E+105</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>9015</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>1.83382884705776E+105</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>9015</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>2.659051828233752E+105</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>9015</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8556251509389403E+105</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>9015</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5906564688614628E+105</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>9015</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1064518798491208E+105</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>9015</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1754355225781224E+106</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>9015</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7043815077382774E+106</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32 A33:E52 G33:J52">
+  <conditionalFormatting sqref="A2:J32 A33:E71 G33:J71">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
